--- a/projectFile/西柚快递帮数据库初库.xlsx
+++ b/projectFile/西柚快递帮数据库初库.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1623BCCD-BB7C-47E4-AB06-A9DAB38969EE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F811E5F-4E94-4113-88AB-CF652B0CE89B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,165 +20,173 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>客户信息表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>用户ID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>手机号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>客户地址</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>普通员信息表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>员工ID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>员工姓名</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>员工出生日期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>员工手机号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>管理人员信息表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>人员ID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>员工住址</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>系统管理员</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>管理ID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>管理员姓名</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>管理员出生日期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>管理员联系方式</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>管理员住址</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>包括小件员和客服</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>订单信息表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>订单ID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>客户ID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>起始地址</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>终点地址</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>订单提交日期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>订单完成日期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>支付状态</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>任务表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务ID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>任务时限</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>订单状态</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>快递信息ID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>快递信息表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>快递大小</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>取货码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>快递公司</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>快递时间</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务注意事项</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务备注</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,23 +219,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -244,7 +235,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,11 +255,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
     <fill>
@@ -322,7 +308,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -336,33 +322,21 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="5" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="4" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="4" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="5">
     <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
-    <cellStyle name="计算" xfId="6" builtinId="22"/>
+    <cellStyle name="计算" xfId="4" builtinId="22"/>
     <cellStyle name="适中" xfId="3" builtinId="28"/>
-    <cellStyle name="输出" xfId="5" builtinId="21"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -642,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -666,168 +640,168 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -835,257 +809,277 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>31</v>
+      <c r="J10" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="Q10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="7"/>
-      <c r="Q11" s="8" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="2"/>
+      <c r="R11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="R11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="S11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="T11" s="8" t="s">
-        <v>30</v>
+      <c r="U11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="7"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="7"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="7"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="7"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="7"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="7"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
